--- a/database/industries/folad/fakhouz/cost/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\fakhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4539E5CA-7443-4855-8056-5773A055E13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -277,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +448,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -459,7 +460,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -506,6 +507,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -541,6 +559,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,17 +727,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -717,7 +752,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,7 +769,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -751,7 +786,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -766,7 +801,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -783,7 +818,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -815,7 +850,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -852,7 +887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -867,7 +902,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -904,7 +939,7 @@
         <v>70783553</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -941,7 +976,7 @@
         <v>2122662</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -978,7 +1013,7 @@
         <v>33702853</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1015,7 +1050,7 @@
         <v>106609068</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +1087,7 @@
         <v>-2199471</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1124,7 @@
         <v>104409597</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1126,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1163,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1200,7 +1235,7 @@
         <v>104409597</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1237,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1274,7 +1309,7 @@
         <v>-5402002</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1311,7 +1346,7 @@
         <v>99007595</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1348,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1385,7 +1420,7 @@
         <v>99007595</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1400,7 +1435,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1415,7 +1450,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1430,7 +1465,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1482,7 +1517,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1521,7 +1556,7 @@
         <v>55683</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1560,7 +1595,7 @@
         <v>13612</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1599,7 +1634,7 @@
         <v>29579</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1638,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1677,7 +1712,7 @@
         <v>11075</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
@@ -1716,7 +1751,7 @@
         <v>14223</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
@@ -1755,7 +1790,7 @@
         <v>1908446</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
@@ -1792,7 +1827,7 @@
         <v>2032618</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1807,7 +1842,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1822,7 +1857,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1837,7 +1872,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>38</v>
       </c>
@@ -1874,7 +1909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1889,7 +1924,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>29</v>
       </c>
@@ -1928,7 +1963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>32</v>
       </c>
@@ -1967,7 +2002,7 @@
         <v>53759</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>33</v>
       </c>
@@ -2006,7 +2041,7 @@
         <v>157604</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>34</v>
       </c>
@@ -2045,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>35</v>
       </c>
@@ -2084,7 +2119,7 @@
         <v>20820</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>36</v>
       </c>
@@ -2123,7 +2158,7 @@
         <v>12623</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
@@ -2162,7 +2197,7 @@
         <v>1085788</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>17</v>
       </c>
@@ -2199,7 +2234,7 @@
         <v>1330619</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2214,7 +2249,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2229,7 +2264,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2244,7 +2279,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>39</v>
       </c>
@@ -2281,7 +2316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2296,7 +2331,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>29</v>
       </c>
@@ -2335,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
@@ -2374,7 +2409,7 @@
         <v>52201</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
@@ -2413,7 +2448,7 @@
         <v>118096</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>34</v>
       </c>
@@ -2452,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>35</v>
       </c>
@@ -2491,7 +2526,7 @@
         <v>23190</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>36</v>
       </c>
@@ -2530,7 +2565,7 @@
         <v>10262</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>37</v>
       </c>
@@ -2569,7 +2604,7 @@
         <v>1445347</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>17</v>
       </c>
@@ -2606,7 +2641,7 @@
         <v>1649096</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2621,7 +2656,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2636,7 +2671,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2651,7 +2686,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>40</v>
       </c>
@@ -2688,7 +2723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2703,7 +2738,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
@@ -2742,7 +2777,7 @@
         <v>55708</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>32</v>
       </c>
@@ -2781,7 +2816,7 @@
         <v>15170</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>33</v>
       </c>
@@ -2820,7 +2855,7 @@
         <v>69087</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>34</v>
       </c>
@@ -2859,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>35</v>
       </c>
@@ -2898,7 +2933,7 @@
         <v>8705</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>36</v>
       </c>
@@ -2937,7 +2972,7 @@
         <v>16584</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>37</v>
       </c>
@@ -2976,7 +3011,7 @@
         <v>1548887</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>17</v>
       </c>
@@ -3013,7 +3048,7 @@
         <v>1714141</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3028,7 +3063,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3043,7 +3078,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3058,7 +3093,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>41</v>
       </c>
@@ -3095,7 +3130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3110,7 +3145,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>29</v>
       </c>
@@ -3149,7 +3184,7 @@
         <v>2206788</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>32</v>
       </c>
@@ -3188,7 +3223,7 @@
         <v>733397</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>33</v>
       </c>
@@ -3227,7 +3262,7 @@
         <v>2525132</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>34</v>
       </c>
@@ -3266,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>35</v>
       </c>
@@ -3305,7 +3340,7 @@
         <v>1498608</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>36</v>
       </c>
@@ -3344,7 +3379,7 @@
         <v>7603919</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>37</v>
       </c>
@@ -3383,7 +3418,7 @@
         <v>65363697</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>17</v>
       </c>
@@ -3420,7 +3455,7 @@
         <v>79931541</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3435,7 +3470,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3450,7 +3485,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3465,7 +3500,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>43</v>
       </c>
@@ -3502,7 +3537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3517,7 +3552,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>29</v>
       </c>
@@ -3556,7 +3591,7 @@
         <v>370475</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>32</v>
       </c>
@@ -3595,7 +3630,7 @@
         <v>4160847</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>33</v>
       </c>
@@ -3634,7 +3669,7 @@
         <v>12511069</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>34</v>
       </c>
@@ -3673,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>35</v>
       </c>
@@ -3712,7 +3747,7 @@
         <v>2235815</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>36</v>
       </c>
@@ -3751,7 +3786,7 @@
         <v>6765690</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>37</v>
       </c>
@@ -3790,7 +3825,7 @@
         <v>40137072</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>17</v>
       </c>
@@ -3827,7 +3862,7 @@
         <v>66180968</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3842,7 +3877,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3857,7 +3892,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3872,7 +3907,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>44</v>
       </c>
@@ -3909,7 +3944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3924,7 +3959,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>29</v>
       </c>
@@ -3963,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
@@ -4002,7 +4037,7 @@
         <v>4047454</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>33</v>
       </c>
@@ -4041,7 +4076,7 @@
         <v>10135431</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>34</v>
       </c>
@@ -4080,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>35</v>
       </c>
@@ -4119,7 +4154,7 @@
         <v>1586223</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>36</v>
       </c>
@@ -4158,7 +4193,7 @@
         <v>4848702</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>37</v>
       </c>
@@ -4197,7 +4232,7 @@
         <v>50165743</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>17</v>
       </c>
@@ -4234,7 +4269,7 @@
         <v>70783553</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4249,7 +4284,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4264,7 +4299,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4279,7 +4314,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>45</v>
       </c>
@@ -4316,7 +4351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4331,7 +4366,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>29</v>
       </c>
@@ -4370,7 +4405,7 @@
         <v>2577263</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>32</v>
       </c>
@@ -4409,7 +4444,7 @@
         <v>846790</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>33</v>
       </c>
@@ -4448,7 +4483,7 @@
         <v>4900770</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>34</v>
       </c>
@@ -4487,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>35</v>
       </c>
@@ -4526,7 +4561,7 @@
         <v>2148200</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>36</v>
       </c>
@@ -4565,7 +4600,7 @@
         <v>9520907</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>37</v>
       </c>
@@ -4604,7 +4639,7 @@
         <v>55335026</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>17</v>
       </c>
@@ -4641,7 +4676,7 @@
         <v>75328956</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4656,7 +4691,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4671,7 +4706,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4686,7 +4721,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>46</v>
       </c>
@@ -4723,7 +4758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4738,7 +4773,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>29</v>
       </c>
@@ -4777,7 +4812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>32</v>
       </c>
@@ -4816,7 +4851,7 @@
         <v>53878710</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>33</v>
       </c>
@@ -4855,7 +4890,7 @@
         <v>85369079</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>34</v>
       </c>
@@ -4894,7 +4929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>35</v>
       </c>
@@ -4933,7 +4968,7 @@
         <v>135314492</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>36</v>
       </c>
@@ -4972,7 +5007,7 @@
         <v>534621318</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>37</v>
       </c>
@@ -5011,7 +5046,7 @@
         <v>34249697</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5026,7 +5061,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5041,7 +5076,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5056,7 +5091,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>48</v>
       </c>
@@ -5093,7 +5128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5108,7 +5143,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>29</v>
       </c>
@@ -5147,7 +5182,7 @@
         <v>14819000000</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>32</v>
       </c>
@@ -5186,7 +5221,7 @@
         <v>77398147</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>33</v>
       </c>
@@ -5225,7 +5260,7 @@
         <v>79382941</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>34</v>
       </c>
@@ -5264,7 +5299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>35</v>
       </c>
@@ -5303,7 +5338,7 @@
         <v>107387848</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>36</v>
       </c>
@@ -5342,7 +5377,7 @@
         <v>535981146</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>37</v>
       </c>
@@ -5381,7 +5416,7 @@
         <v>36965846</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5396,7 +5431,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5411,7 +5446,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5426,7 +5461,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>49</v>
       </c>
@@ -5463,7 +5498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5478,7 +5513,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>29</v>
       </c>
@@ -5517,7 +5552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>32</v>
       </c>
@@ -5556,7 +5591,7 @@
         <v>77535948</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>33</v>
       </c>
@@ -5595,7 +5630,7 @@
         <v>85823660</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>34</v>
       </c>
@@ -5634,7 +5669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>35</v>
       </c>
@@ -5673,7 +5708,7 @@
         <v>68401164</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>36</v>
       </c>
@@ -5712,7 +5747,7 @@
         <v>472490937</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>37</v>
       </c>
@@ -5751,7 +5786,7 @@
         <v>34708442</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5766,7 +5801,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5781,7 +5816,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5796,7 +5831,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
         <v>50</v>
       </c>
@@ -5833,7 +5868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5848,7 +5883,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>29</v>
       </c>
@@ -5887,7 +5922,7 @@
         <v>46263786</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>32</v>
       </c>
@@ -5926,7 +5961,7 @@
         <v>55820040</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>33</v>
       </c>
@@ -5965,7 +6000,7 @@
         <v>70936211</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>34</v>
       </c>
@@ -6004,7 +6039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>35</v>
       </c>
@@ -6043,7 +6078,7 @@
         <v>246777714</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>36</v>
       </c>
@@ -6082,7 +6117,7 @@
         <v>574101966</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>37</v>
       </c>
@@ -6121,7 +6156,7 @@
         <v>35725670</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6136,7 +6171,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6151,7 +6186,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6166,7 +6201,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>51</v>
       </c>
@@ -6203,7 +6238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -6218,7 +6253,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>52</v>
       </c>
@@ -6255,7 +6290,7 @@
         <v>1686472</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>53</v>
       </c>
@@ -6292,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>54</v>
       </c>
@@ -6329,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>55</v>
       </c>
@@ -6366,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>56</v>
       </c>
@@ -6403,7 +6438,7 @@
         <v>5666674</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>57</v>
       </c>
@@ -6440,7 +6475,7 @@
         <v>12592292</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>58</v>
       </c>
@@ -6477,7 +6512,7 @@
         <v>659285</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>59</v>
       </c>
@@ -6514,7 +6549,7 @@
         <v>6671769</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>60</v>
       </c>
@@ -6551,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>61</v>
       </c>
@@ -6588,7 +6623,7 @@
         <v>6426361</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="14" t="s">
         <v>17</v>
       </c>
@@ -6625,7 +6660,7 @@
         <v>33702853</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -6640,7 +6675,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -6655,7 +6690,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -6670,7 +6705,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
         <v>62</v>
       </c>
@@ -6687,7 +6722,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -6702,7 +6737,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>63</v>
       </c>
@@ -6721,7 +6756,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>65</v>
       </c>
@@ -6740,7 +6775,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>67</v>
       </c>
@@ -6751,7 +6786,7 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>69</v>
       </c>
@@ -6762,7 +6797,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>69</v>
       </c>
@@ -6773,7 +6808,7 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>72</v>
       </c>
@@ -6784,7 +6819,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>74</v>
       </c>
@@ -6795,7 +6830,7 @@
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>76</v>
       </c>
@@ -6806,7 +6841,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>77</v>
       </c>
@@ -6817,7 +6852,7 @@
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>79</v>
       </c>
@@ -6828,7 +6863,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>81</v>
       </c>
@@ -6839,7 +6874,7 @@
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>82</v>
       </c>
@@ -6850,7 +6885,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>83</v>
       </c>

--- a/database/industries/folad/fakhouz/cost/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDF7AA0-ED01-4656-B53B-E602A2935955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF852194-BA9A-43CC-99CF-922DEEFE6EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بهای تمام شده کالای فروش رفته</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
   </si>
   <si>
     <t>تن</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>آهن قراضه و چدن</t>
@@ -713,16 +728,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I209"/>
+  <dimension ref="B1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -731,8 +746,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,8 +763,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -755,8 +780,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -765,8 +795,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -777,8 +812,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -789,8 +829,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -799,8 +844,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -821,8 +871,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -831,142 +896,237 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>27545130</v>
+      </c>
+      <c r="F10" s="9">
+        <v>41363799</v>
+      </c>
+      <c r="G10" s="9">
+        <v>44070567</v>
+      </c>
+      <c r="H10" s="9">
+        <v>50213527</v>
+      </c>
+      <c r="I10" s="9">
+        <v>43131205</v>
+      </c>
+      <c r="J10" s="9">
         <v>71175645</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>88410909</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>57572166</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>70804883</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>75211464</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>717297</v>
+      </c>
+      <c r="F11" s="11">
+        <v>751310</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1248588</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1621525</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1276145</v>
+      </c>
+      <c r="J11" s="11">
         <v>1407972</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>1583546</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>2640018</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>2122662</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>2363398</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>12846623</v>
+      </c>
+      <c r="F12" s="9">
+        <v>14075209</v>
+      </c>
+      <c r="G12" s="9">
+        <v>13567284</v>
+      </c>
+      <c r="H12" s="9">
+        <v>20859633</v>
+      </c>
+      <c r="I12" s="9">
+        <v>18447957</v>
+      </c>
+      <c r="J12" s="9">
         <v>22237287</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>36870708</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>37577943</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>33702825</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>35863430</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>41109050</v>
+      </c>
+      <c r="F13" s="13">
+        <v>56190318</v>
+      </c>
+      <c r="G13" s="13">
+        <v>58886439</v>
+      </c>
+      <c r="H13" s="13">
+        <v>72694685</v>
+      </c>
+      <c r="I13" s="13">
+        <v>62855307</v>
+      </c>
+      <c r="J13" s="13">
         <v>94820904</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>126865163</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>97790127</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>106630370</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>113438292</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-1640303</v>
+      </c>
+      <c r="J14" s="9">
         <v>1640303</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-4074725</v>
       </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
         <v>-2199471</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>147776</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>41109050</v>
+      </c>
+      <c r="F15" s="13">
+        <v>56190318</v>
+      </c>
+      <c r="G15" s="13">
+        <v>58886439</v>
+      </c>
+      <c r="H15" s="13">
+        <v>72694685</v>
+      </c>
+      <c r="I15" s="13">
+        <v>61215004</v>
+      </c>
+      <c r="J15" s="13">
         <v>96461207</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>122790438</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>97790127</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>104430899</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>113586068</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -985,10 +1145,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1007,98 +1182,173 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>41109050</v>
+      </c>
+      <c r="F18" s="15">
+        <v>56190318</v>
+      </c>
+      <c r="G18" s="15">
+        <v>58886439</v>
+      </c>
+      <c r="H18" s="15">
+        <v>72694685</v>
+      </c>
+      <c r="I18" s="15">
+        <v>61215004</v>
+      </c>
+      <c r="J18" s="15">
         <v>96461207</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>122790438</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>97790127</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>104430899</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>113586068</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1730298</v>
+      </c>
+      <c r="H19" s="11">
+        <v>16317168</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
         <v>217394</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>15805540</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>31945780</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>41167067</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>46656137</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-1980858</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-1730298</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-29155620</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-2936775</v>
+      </c>
+      <c r="J20" s="9">
         <v>-15805540</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-31945780</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-41167067</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-46656137</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-46152273</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>39128192</v>
+      </c>
+      <c r="F21" s="13">
+        <v>54460020</v>
+      </c>
+      <c r="G21" s="13">
+        <v>56974255</v>
+      </c>
+      <c r="H21" s="13">
+        <v>59856233</v>
+      </c>
+      <c r="I21" s="13">
+        <v>58278229</v>
+      </c>
+      <c r="J21" s="13">
         <v>80873061</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>138742593</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>88568840</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>98941829</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>114089932</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1117,30 +1367,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>39128192</v>
+      </c>
+      <c r="F23" s="13">
+        <v>54460020</v>
+      </c>
+      <c r="G23" s="13">
+        <v>56974255</v>
+      </c>
+      <c r="H23" s="13">
+        <v>59856233</v>
+      </c>
+      <c r="I23" s="13">
+        <v>58278229</v>
+      </c>
+      <c r="J23" s="13">
         <v>80873061</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>138742593</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>88568840</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>98941829</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>114089932</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1149,8 +1429,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1159,8 +1444,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1169,10 +1459,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1191,8 +1486,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1201,198 +1511,323 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
+      <c r="E29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="9">
+        <v>605</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>52093</v>
+      </c>
+      <c r="I29" s="9">
+        <v>54108</v>
+      </c>
+      <c r="J29" s="9">
         <v>54006</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
+      <c r="K29" s="9">
+        <v>41531</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
         <v>55683</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>55708</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="F30" s="11">
+        <v>269</v>
       </c>
       <c r="G30" s="11">
+        <v>4093</v>
+      </c>
+      <c r="H30" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I30" s="11">
+        <v>909</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>16666</v>
+      </c>
+      <c r="L30" s="11">
         <v>18439</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>13612</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>15170</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>6943</v>
+      </c>
+      <c r="F31" s="9">
+        <v>24138</v>
+      </c>
+      <c r="G31" s="9">
+        <v>10384</v>
+      </c>
+      <c r="H31" s="9">
+        <v>14789</v>
+      </c>
+      <c r="I31" s="9">
+        <v>56149</v>
+      </c>
+      <c r="J31" s="9">
         <v>38643</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9">
+        <v>89319</v>
+      </c>
+      <c r="L31" s="9">
         <v>23931</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>29579</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>62870</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
         <v>1</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
         <v>1</v>
       </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>7382</v>
+      </c>
+      <c r="F33" s="9">
+        <v>4154</v>
+      </c>
+      <c r="G33" s="9">
+        <v>11335</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5350</v>
+      </c>
+      <c r="I33" s="9">
+        <v>7581</v>
+      </c>
+      <c r="J33" s="9">
         <v>9410</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="K33" s="9">
+        <v>15757</v>
+      </c>
+      <c r="L33" s="9">
         <v>16686</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>11075</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>8705</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>32649</v>
+      </c>
+      <c r="F34" s="11">
+        <v>24136</v>
+      </c>
+      <c r="G34" s="11">
+        <v>18222</v>
+      </c>
+      <c r="H34" s="11">
+        <v>18347</v>
+      </c>
+      <c r="I34" s="11">
+        <v>16539</v>
+      </c>
+      <c r="J34" s="11">
         <v>14995</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11">
+        <v>11042</v>
+      </c>
+      <c r="L34" s="11">
         <v>11306</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>14223</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>16585</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>653857</v>
+      </c>
+      <c r="F35" s="9">
+        <v>711245</v>
+      </c>
+      <c r="G35" s="9">
+        <v>756304</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1353823</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1345867</v>
+      </c>
+      <c r="J35" s="9">
         <v>2090144</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="K35" s="9">
+        <v>1681506</v>
+      </c>
+      <c r="L35" s="9">
         <v>1774051</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>1908446</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>1548887</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>700832</v>
+      </c>
+      <c r="F36" s="13">
+        <v>764547</v>
+      </c>
+      <c r="G36" s="13">
+        <v>800338</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1446402</v>
+      </c>
+      <c r="I36" s="13">
+        <v>1481153</v>
+      </c>
+      <c r="J36" s="13">
         <v>2207199</v>
       </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="K36" s="13">
+        <v>1855821</v>
+      </c>
+      <c r="L36" s="13">
         <v>1844414</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>2032618</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>1707925</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1401,8 +1836,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1411,8 +1851,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1421,10 +1866,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1443,8 +1893,23 @@
       <c r="I40" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1453,198 +1918,323 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="F42" s="9">
+        <v>49732</v>
+      </c>
+      <c r="G42" s="9">
+        <v>116101</v>
+      </c>
+      <c r="H42" s="9">
+        <v>44676</v>
+      </c>
+      <c r="I42" s="9">
+        <v>2572</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
         <v>50616</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>55683</v>
       </c>
-      <c r="H42" s="9">
-        <v>25</v>
-      </c>
-      <c r="I42" s="9">
+      <c r="M42" s="9">
+        <v>25</v>
+      </c>
+      <c r="N42" s="9">
         <v>3897</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>50275</v>
+      </c>
+      <c r="F43" s="11">
+        <v>56634</v>
+      </c>
+      <c r="G43" s="11">
+        <v>45828</v>
+      </c>
+      <c r="H43" s="11">
+        <v>48928</v>
+      </c>
+      <c r="I43" s="11">
+        <v>32740</v>
+      </c>
+      <c r="J43" s="11">
         <v>74099</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>75588</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>58307</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>53759</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>54561</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
+        <v>148955</v>
+      </c>
+      <c r="F44" s="9">
+        <v>182529</v>
+      </c>
+      <c r="G44" s="9">
+        <v>119028</v>
+      </c>
+      <c r="H44" s="9">
+        <v>114308</v>
+      </c>
+      <c r="I44" s="9">
+        <v>39741</v>
+      </c>
+      <c r="J44" s="9">
         <v>280438</v>
       </c>
-      <c r="F44" s="9">
+      <c r="K44" s="9">
         <v>250510</v>
       </c>
-      <c r="G44" s="9">
+      <c r="L44" s="9">
         <v>128395</v>
       </c>
-      <c r="H44" s="9">
+      <c r="M44" s="9">
         <v>157604</v>
       </c>
-      <c r="I44" s="9">
+      <c r="N44" s="9">
         <v>166923</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1</v>
+      </c>
+      <c r="J45" s="11">
         <v>-1</v>
       </c>
-      <c r="F45" s="11">
-        <v>0</v>
-      </c>
-      <c r="G45" s="11">
-        <v>0</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K45" s="11">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>38353</v>
+      </c>
+      <c r="F46" s="9">
+        <v>41352</v>
+      </c>
+      <c r="G46" s="9">
+        <v>35240</v>
+      </c>
+      <c r="H46" s="9">
+        <v>33501</v>
+      </c>
+      <c r="I46" s="9">
+        <v>19935</v>
+      </c>
+      <c r="J46" s="9">
         <v>32335</v>
       </c>
-      <c r="F46" s="9">
+      <c r="K46" s="9">
         <v>34982</v>
       </c>
-      <c r="G46" s="9">
+      <c r="L46" s="9">
         <v>24170</v>
       </c>
-      <c r="H46" s="9">
+      <c r="M46" s="9">
         <v>20820</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>28618</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>4921</v>
+      </c>
+      <c r="F47" s="11">
+        <v>5972</v>
+      </c>
+      <c r="G47" s="11">
+        <v>11767</v>
+      </c>
+      <c r="H47" s="11">
+        <v>8996</v>
+      </c>
+      <c r="I47" s="11">
+        <v>3043</v>
+      </c>
+      <c r="J47" s="11">
         <v>5610</v>
       </c>
-      <c r="F47" s="11">
+      <c r="K47" s="11">
         <v>14110</v>
       </c>
-      <c r="G47" s="11">
+      <c r="L47" s="11">
         <v>14294</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>12623</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>15640</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
+        <v>1430386</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1425879</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1645270</v>
+      </c>
+      <c r="H48" s="9">
+        <v>1483007</v>
+      </c>
+      <c r="I48" s="9">
+        <v>1868979</v>
+      </c>
+      <c r="J48" s="9">
         <v>972176</v>
       </c>
-      <c r="F48" s="9">
+      <c r="K48" s="9">
         <v>1209391</v>
       </c>
-      <c r="G48" s="9">
+      <c r="L48" s="9">
         <v>1206627</v>
       </c>
-      <c r="H48" s="9">
+      <c r="M48" s="9">
         <v>1085788</v>
       </c>
-      <c r="I48" s="9">
+      <c r="N48" s="9">
         <v>1213684</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>1673495</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1762098</v>
+      </c>
+      <c r="G49" s="13">
+        <v>1973234</v>
+      </c>
+      <c r="H49" s="13">
+        <v>1733416</v>
+      </c>
+      <c r="I49" s="13">
+        <v>1967011</v>
+      </c>
+      <c r="J49" s="13">
         <v>1364657</v>
       </c>
-      <c r="F49" s="13">
+      <c r="K49" s="13">
         <v>1635197</v>
       </c>
-      <c r="G49" s="13">
+      <c r="L49" s="13">
         <v>1487476</v>
       </c>
-      <c r="H49" s="13">
+      <c r="M49" s="13">
         <v>1330619</v>
       </c>
-      <c r="I49" s="13">
+      <c r="N49" s="13">
         <v>1483323</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1653,8 +2243,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1663,8 +2258,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1673,10 +2273,15 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1695,8 +2300,23 @@
       <c r="I53" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1705,198 +2325,323 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>50337</v>
+      </c>
+      <c r="G55" s="9">
+        <v>64008</v>
+      </c>
+      <c r="H55" s="9">
+        <v>42661</v>
+      </c>
+      <c r="I55" s="9">
+        <v>2674</v>
+      </c>
+      <c r="J55" s="9">
         <v>12475</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>92147</v>
       </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L55" s="9">
+        <v>0</v>
+      </c>
+      <c r="M55" s="9">
+        <v>0</v>
+      </c>
+      <c r="N55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>50007</v>
+      </c>
+      <c r="F56" s="11">
+        <v>52810</v>
+      </c>
+      <c r="G56" s="11">
+        <v>47920</v>
+      </c>
+      <c r="H56" s="11">
+        <v>50019</v>
+      </c>
+      <c r="I56" s="11">
+        <v>33649</v>
+      </c>
+      <c r="J56" s="11">
         <v>57433</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>73814</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>63134</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>52201</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>44671</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>131760</v>
+      </c>
+      <c r="F57" s="9">
+        <v>196283</v>
+      </c>
+      <c r="G57" s="9">
+        <v>112485</v>
+      </c>
+      <c r="H57" s="9">
+        <v>72948</v>
+      </c>
+      <c r="I57" s="9">
+        <v>57247</v>
+      </c>
+      <c r="J57" s="9">
         <v>229762</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>322369</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>122747</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>118096</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>189288</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0</v>
+      </c>
+      <c r="J58" s="11">
         <v>1</v>
       </c>
-      <c r="F58" s="11">
-        <v>0</v>
-      </c>
-      <c r="G58" s="11">
+      <c r="K58" s="11">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
         <v>1</v>
       </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>41581</v>
+      </c>
+      <c r="F59" s="9">
+        <v>34171</v>
+      </c>
+      <c r="G59" s="9">
+        <v>41263</v>
+      </c>
+      <c r="H59" s="9">
+        <v>31270</v>
+      </c>
+      <c r="I59" s="9">
+        <v>18106</v>
+      </c>
+      <c r="J59" s="9">
         <v>25988</v>
       </c>
-      <c r="F59" s="9">
+      <c r="K59" s="9">
         <v>33074</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>29781</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>23190</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>24230</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>13434</v>
+      </c>
+      <c r="F60" s="11">
+        <v>12301</v>
+      </c>
+      <c r="G60" s="11">
+        <v>11642</v>
+      </c>
+      <c r="H60" s="11">
+        <v>10804</v>
+      </c>
+      <c r="I60" s="11">
+        <v>4587</v>
+      </c>
+      <c r="J60" s="11">
         <v>9563</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>13851</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>11377</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>10261</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>13823</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
+        <v>1372998</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1380820</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1047752</v>
+      </c>
+      <c r="H61" s="9">
+        <v>1490963</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1124702</v>
+      </c>
+      <c r="J61" s="9">
         <v>1380814</v>
       </c>
-      <c r="F61" s="9">
+      <c r="K61" s="9">
         <v>1116845</v>
       </c>
-      <c r="G61" s="9">
+      <c r="L61" s="9">
         <v>1072232</v>
       </c>
-      <c r="H61" s="9">
+      <c r="M61" s="9">
         <v>1445347</v>
       </c>
-      <c r="I61" s="9">
+      <c r="N61" s="9">
         <v>1448005</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>1609780</v>
+      </c>
+      <c r="F62" s="13">
+        <v>1726722</v>
+      </c>
+      <c r="G62" s="13">
+        <v>1325070</v>
+      </c>
+      <c r="H62" s="13">
+        <v>1698665</v>
+      </c>
+      <c r="I62" s="13">
+        <v>1240965</v>
+      </c>
+      <c r="J62" s="13">
         <v>1716036</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>1652100</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>1299272</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>1649095</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>1720017</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1905,8 +2650,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1915,8 +2665,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1925,10 +2680,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1947,8 +2707,23 @@
       <c r="I66" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1957,85 +2732,135 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
+        <v>605</v>
+      </c>
+      <c r="F68" s="9">
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <v>52093</v>
+      </c>
+      <c r="H68" s="9">
+        <v>54108</v>
+      </c>
+      <c r="I68" s="9">
+        <v>54006</v>
+      </c>
+      <c r="J68" s="9">
         <v>41531</v>
       </c>
-      <c r="F68" s="9">
-        <v>0</v>
-      </c>
-      <c r="G68" s="9">
+      <c r="K68" s="9">
+        <v>0</v>
+      </c>
+      <c r="L68" s="9">
         <v>55683</v>
       </c>
-      <c r="H68" s="9">
+      <c r="M68" s="9">
         <v>55708</v>
       </c>
-      <c r="I68" s="9">
+      <c r="N68" s="9">
         <v>59605</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>269</v>
+      </c>
+      <c r="F69" s="11">
+        <v>4093</v>
+      </c>
+      <c r="G69" s="11">
+        <v>2001</v>
+      </c>
+      <c r="H69" s="11">
+        <v>909</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0</v>
+      </c>
+      <c r="J69" s="11">
         <v>16666</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>18440</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>13612</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>15170</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>25060</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
+        <v>24138</v>
+      </c>
+      <c r="F70" s="9">
+        <v>10384</v>
+      </c>
+      <c r="G70" s="9">
+        <v>16927</v>
+      </c>
+      <c r="H70" s="9">
+        <v>56149</v>
+      </c>
+      <c r="I70" s="9">
+        <v>38643</v>
+      </c>
+      <c r="J70" s="9">
         <v>89319</v>
       </c>
-      <c r="F70" s="9">
+      <c r="K70" s="9">
         <v>17460</v>
       </c>
-      <c r="G70" s="9">
+      <c r="L70" s="9">
         <v>29579</v>
       </c>
-      <c r="H70" s="9">
+      <c r="M70" s="9">
         <v>62870</v>
       </c>
-      <c r="I70" s="9">
+      <c r="N70" s="9">
         <v>40505</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
@@ -2051,104 +2876,179 @@
         <v>0</v>
       </c>
       <c r="I71" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J71" s="11">
+        <v>0</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0</v>
+      </c>
+      <c r="L71" s="11">
+        <v>0</v>
+      </c>
+      <c r="M71" s="11">
+        <v>0</v>
+      </c>
+      <c r="N71" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
+        <v>4154</v>
+      </c>
+      <c r="F72" s="9">
+        <v>11335</v>
+      </c>
+      <c r="G72" s="9">
+        <v>5312</v>
+      </c>
+      <c r="H72" s="9">
+        <v>7581</v>
+      </c>
+      <c r="I72" s="9">
+        <v>9410</v>
+      </c>
+      <c r="J72" s="9">
         <v>15757</v>
       </c>
-      <c r="F72" s="9">
+      <c r="K72" s="9">
         <v>17665</v>
       </c>
-      <c r="G72" s="9">
+      <c r="L72" s="9">
         <v>11075</v>
       </c>
-      <c r="H72" s="9">
+      <c r="M72" s="9">
         <v>8705</v>
       </c>
-      <c r="I72" s="9">
+      <c r="N72" s="9">
         <v>13093</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>24136</v>
+      </c>
+      <c r="F73" s="11">
+        <v>18222</v>
+      </c>
+      <c r="G73" s="11">
+        <v>18347</v>
+      </c>
+      <c r="H73" s="11">
+        <v>16539</v>
+      </c>
+      <c r="I73" s="11">
+        <v>14995</v>
+      </c>
+      <c r="J73" s="11">
         <v>11042</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>11301</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>14223</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>16585</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>18402</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
+        <v>711245</v>
+      </c>
+      <c r="F74" s="9">
+        <v>756304</v>
+      </c>
+      <c r="G74" s="9">
+        <v>1353822</v>
+      </c>
+      <c r="H74" s="9">
+        <v>1345867</v>
+      </c>
+      <c r="I74" s="9">
+        <v>2090144</v>
+      </c>
+      <c r="J74" s="9">
         <v>1681506</v>
       </c>
-      <c r="F74" s="9">
+      <c r="K74" s="9">
         <v>1774052</v>
       </c>
-      <c r="G74" s="9">
+      <c r="L74" s="9">
         <v>1908446</v>
       </c>
-      <c r="H74" s="9">
+      <c r="M74" s="9">
         <v>1548887</v>
       </c>
-      <c r="I74" s="9">
+      <c r="N74" s="9">
         <v>1314566</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
+        <v>764547</v>
+      </c>
+      <c r="F75" s="13">
+        <v>800338</v>
+      </c>
+      <c r="G75" s="13">
+        <v>1448502</v>
+      </c>
+      <c r="H75" s="13">
+        <v>1481153</v>
+      </c>
+      <c r="I75" s="13">
+        <v>2207199</v>
+      </c>
+      <c r="J75" s="13">
         <v>1855821</v>
       </c>
-      <c r="F75" s="13">
+      <c r="K75" s="13">
         <v>1838918</v>
       </c>
-      <c r="G75" s="13">
+      <c r="L75" s="13">
         <v>2032618</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>1707925</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>1471231</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2157,8 +3057,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2167,8 +3072,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2177,10 +3087,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2199,8 +3114,23 @@
       <c r="I79" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2209,198 +3139,323 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9">
+      <c r="E81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="9">
+        <v>9641</v>
+      </c>
+      <c r="G81" s="9">
+        <v>0</v>
+      </c>
+      <c r="H81" s="9">
+        <v>1506790</v>
+      </c>
+      <c r="I81" s="9">
+        <v>1643449</v>
+      </c>
+      <c r="J81" s="9">
         <v>1654856</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="9">
-        <v>0</v>
-      </c>
-      <c r="H81" s="9">
+      <c r="K81" s="9">
+        <v>1275795</v>
+      </c>
+      <c r="L81" s="9">
+        <v>0</v>
+      </c>
+      <c r="M81" s="9">
         <v>2206788</v>
       </c>
-      <c r="I81" s="9">
+      <c r="N81" s="9">
         <v>2577263</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>0</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="F82" s="11">
+        <v>17919</v>
       </c>
       <c r="G82" s="11">
+        <v>323052</v>
+      </c>
+      <c r="H82" s="11">
+        <v>171643</v>
+      </c>
+      <c r="I82" s="11">
+        <v>84442</v>
+      </c>
+      <c r="J82" s="11">
+        <v>0</v>
+      </c>
+      <c r="K82" s="11">
+        <v>1560778</v>
+      </c>
+      <c r="L82" s="11">
         <v>1861761</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>733397</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>859282</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
+        <v>191072</v>
+      </c>
+      <c r="F83" s="9">
+        <v>962839</v>
+      </c>
+      <c r="G83" s="9">
+        <v>483080</v>
+      </c>
+      <c r="H83" s="9">
+        <v>957275</v>
+      </c>
+      <c r="I83" s="9">
+        <v>3653601</v>
+      </c>
+      <c r="J83" s="9">
         <v>2824001</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="9">
+      <c r="K83" s="9">
+        <v>7382405</v>
+      </c>
+      <c r="L83" s="9">
         <v>2043065</v>
       </c>
-      <c r="H83" s="9">
+      <c r="M83" s="9">
         <v>2525132</v>
       </c>
-      <c r="I83" s="9">
+      <c r="N83" s="9">
         <v>4491731</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>334868</v>
+      </c>
+      <c r="F84" s="11">
+        <v>269166</v>
+      </c>
+      <c r="G84" s="11">
+        <v>334868</v>
+      </c>
+      <c r="H84" s="11">
+        <v>400388</v>
+      </c>
+      <c r="I84" s="11">
+        <v>400388</v>
+      </c>
+      <c r="J84" s="11">
         <v>805078</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="11">
+      <c r="K84" s="11">
+        <v>0</v>
+      </c>
+      <c r="L84" s="11">
         <v>2070357</v>
       </c>
-      <c r="H84" s="11">
-        <v>0</v>
-      </c>
-      <c r="I84" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M84" s="11">
+        <v>0</v>
+      </c>
+      <c r="N84" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>546386</v>
+      </c>
+      <c r="F85" s="9">
+        <v>544436</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1096039</v>
+      </c>
+      <c r="H85" s="9">
+        <v>774092</v>
+      </c>
+      <c r="I85" s="9">
+        <v>1082024</v>
+      </c>
+      <c r="J85" s="9">
         <v>1209876</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="9">
+      <c r="K85" s="9">
+        <v>1697615</v>
+      </c>
+      <c r="L85" s="9">
         <v>1739768</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>1498608</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>2139794</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>5860382</v>
+      </c>
+      <c r="F86" s="11">
+        <v>4747725</v>
+      </c>
+      <c r="G86" s="11">
+        <v>4145953</v>
+      </c>
+      <c r="H86" s="11">
+        <v>4596944</v>
+      </c>
+      <c r="I86" s="11">
+        <v>4922553</v>
+      </c>
+      <c r="J86" s="11">
         <v>4849454</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="11">
+      <c r="K86" s="11">
+        <v>5032824</v>
+      </c>
+      <c r="L86" s="11">
         <v>5644965</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>7603919</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>9526571</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>6327065</v>
+      </c>
+      <c r="F87" s="9">
+        <v>8381096</v>
+      </c>
+      <c r="G87" s="9">
+        <v>11881347</v>
+      </c>
+      <c r="H87" s="9">
+        <v>29063747</v>
+      </c>
+      <c r="I87" s="9">
+        <v>32869972</v>
+      </c>
+      <c r="J87" s="9">
         <v>62025823</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="9">
+      <c r="K87" s="9">
+        <v>53027840</v>
+      </c>
+      <c r="L87" s="9">
         <v>55023038</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>65363697</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>55335026</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>13259774</v>
+      </c>
+      <c r="F88" s="13">
+        <v>14932822</v>
+      </c>
+      <c r="G88" s="13">
+        <v>18264339</v>
+      </c>
+      <c r="H88" s="13">
+        <v>37470879</v>
+      </c>
+      <c r="I88" s="13">
+        <v>44656429</v>
+      </c>
+      <c r="J88" s="13">
         <v>73369088</v>
       </c>
-      <c r="F88" s="13">
-        <v>0</v>
-      </c>
-      <c r="G88" s="13">
+      <c r="K88" s="13">
+        <v>69977257</v>
+      </c>
+      <c r="L88" s="13">
         <v>68382954</v>
       </c>
-      <c r="H88" s="13">
+      <c r="M88" s="13">
         <v>79931541</v>
       </c>
-      <c r="I88" s="13">
+      <c r="N88" s="13">
         <v>74929667</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2409,8 +3464,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2419,8 +3479,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2429,10 +3494,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2451,8 +3521,23 @@
       <c r="I92" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2461,198 +3546,323 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
+        <v>9641</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1322171</v>
+      </c>
+      <c r="G94" s="9">
+        <v>3432463</v>
+      </c>
+      <c r="H94" s="9">
+        <v>1422363</v>
+      </c>
+      <c r="I94" s="9">
+        <v>92291</v>
+      </c>
+      <c r="J94" s="9">
         <v>6991</v>
       </c>
-      <c r="F94" s="9">
+      <c r="K94" s="9">
         <v>3950171</v>
       </c>
-      <c r="G94" s="9">
+      <c r="L94" s="9">
         <v>2206788</v>
       </c>
-      <c r="H94" s="9">
+      <c r="M94" s="9">
         <v>370475</v>
       </c>
-      <c r="I94" s="9">
+      <c r="N94" s="9">
         <v>186088</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
+        <v>3080491</v>
+      </c>
+      <c r="F95" s="11">
+        <v>4502443</v>
+      </c>
+      <c r="G95" s="11">
+        <v>4220125</v>
+      </c>
+      <c r="H95" s="11">
+        <v>4543243</v>
+      </c>
+      <c r="I95" s="11">
+        <v>3754264</v>
+      </c>
+      <c r="J95" s="11">
         <v>7472252</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>7590634</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>4342468</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>4232593</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>7660292</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
+        <v>5121345</v>
+      </c>
+      <c r="F96" s="9">
+        <v>9441004</v>
+      </c>
+      <c r="G96" s="9">
+        <v>7697027</v>
+      </c>
+      <c r="H96" s="9">
+        <v>7410594</v>
+      </c>
+      <c r="I96" s="9">
+        <v>3218895</v>
+      </c>
+      <c r="J96" s="9">
         <v>23456100</v>
       </c>
-      <c r="F96" s="9">
+      <c r="K96" s="9">
         <v>24807364</v>
       </c>
-      <c r="G96" s="9">
+      <c r="L96" s="9">
         <v>10832361</v>
       </c>
-      <c r="H96" s="9">
+      <c r="M96" s="9">
         <v>12585486</v>
       </c>
-      <c r="I96" s="9">
+      <c r="N96" s="9">
         <v>11539130</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>0</v>
+      </c>
+      <c r="F97" s="11">
+        <v>0</v>
+      </c>
+      <c r="G97" s="11">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="11">
+        <v>404690</v>
+      </c>
+      <c r="J97" s="11">
         <v>-404690</v>
       </c>
-      <c r="F97" s="11">
-        <v>0</v>
-      </c>
-      <c r="G97" s="11">
-        <v>0</v>
-      </c>
-      <c r="H97" s="11">
-        <v>0</v>
-      </c>
-      <c r="I97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K97" s="11">
+        <v>0</v>
+      </c>
+      <c r="L97" s="11">
+        <v>0</v>
+      </c>
+      <c r="M97" s="11">
+        <v>0</v>
+      </c>
+      <c r="N97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
+        <v>796151</v>
+      </c>
+      <c r="F98" s="9">
+        <v>1455268</v>
+      </c>
+      <c r="G98" s="9">
+        <v>1632028</v>
+      </c>
+      <c r="H98" s="9">
+        <v>1896051</v>
+      </c>
+      <c r="I98" s="9">
+        <v>1288589</v>
+      </c>
+      <c r="J98" s="9">
         <v>2018355</v>
       </c>
-      <c r="F98" s="9">
+      <c r="K98" s="9">
         <v>2027706</v>
       </c>
-      <c r="G98" s="9">
+      <c r="L98" s="9">
         <v>1656647</v>
       </c>
-      <c r="H98" s="9">
+      <c r="M98" s="9">
         <v>2232193</v>
       </c>
-      <c r="I98" s="9">
+      <c r="N98" s="9">
         <v>2371471</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>850106</v>
+      </c>
+      <c r="F99" s="11">
+        <v>1426909</v>
+      </c>
+      <c r="G99" s="11">
+        <v>2505900</v>
+      </c>
+      <c r="H99" s="11">
+        <v>2628689</v>
+      </c>
+      <c r="I99" s="11">
+        <v>854977</v>
+      </c>
+      <c r="J99" s="11">
         <v>2654969</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>7394004</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>7294450</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>6775949</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>6541061</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
+        <v>19360444</v>
+      </c>
+      <c r="F100" s="9">
+        <v>26478336</v>
+      </c>
+      <c r="G100" s="9">
+        <v>43930553</v>
+      </c>
+      <c r="H100" s="9">
+        <v>39498137</v>
+      </c>
+      <c r="I100" s="9">
+        <v>62230158</v>
+      </c>
+      <c r="J100" s="9">
         <v>32579837</v>
       </c>
-      <c r="F100" s="9">
+      <c r="K100" s="9">
         <v>40577970</v>
       </c>
-      <c r="G100" s="9">
+      <c r="L100" s="9">
         <v>42788039</v>
       </c>
-      <c r="H100" s="9">
+      <c r="M100" s="9">
         <v>40137072</v>
       </c>
-      <c r="I100" s="9">
+      <c r="N100" s="9">
         <v>37840233</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
+        <v>29218178</v>
+      </c>
+      <c r="F101" s="13">
+        <v>44626131</v>
+      </c>
+      <c r="G101" s="13">
+        <v>63418096</v>
+      </c>
+      <c r="H101" s="13">
+        <v>57399077</v>
+      </c>
+      <c r="I101" s="13">
+        <v>71843864</v>
+      </c>
+      <c r="J101" s="13">
         <v>67783814</v>
       </c>
-      <c r="F101" s="13">
+      <c r="K101" s="13">
         <v>86347849</v>
       </c>
-      <c r="G101" s="13">
+      <c r="L101" s="13">
         <v>69120753</v>
       </c>
-      <c r="H101" s="13">
+      <c r="M101" s="13">
         <v>66333768</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>66138275</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2661,8 +3871,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2671,8 +3886,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2681,10 +3901,15 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2703,8 +3928,23 @@
       <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2713,198 +3953,323 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
+        <v>0</v>
+      </c>
+      <c r="F107" s="9">
+        <v>1331812</v>
+      </c>
+      <c r="G107" s="9">
+        <v>1925673</v>
+      </c>
+      <c r="H107" s="9">
+        <v>1285704</v>
+      </c>
+      <c r="I107" s="9">
+        <v>80884</v>
+      </c>
+      <c r="J107" s="9">
         <v>386052</v>
       </c>
-      <c r="F107" s="9">
+      <c r="K107" s="9">
         <v>5225966</v>
       </c>
-      <c r="G107" s="9">
-        <v>0</v>
-      </c>
-      <c r="H107" s="9">
-        <v>0</v>
-      </c>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L107" s="9">
+        <v>0</v>
+      </c>
+      <c r="M107" s="9">
+        <v>0</v>
+      </c>
+      <c r="N107" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
+        <v>3062573</v>
+      </c>
+      <c r="F108" s="11">
+        <v>4197310</v>
+      </c>
+      <c r="G108" s="11">
+        <v>4371534</v>
+      </c>
+      <c r="H108" s="11">
+        <v>4630444</v>
+      </c>
+      <c r="I108" s="11">
+        <v>3838706</v>
+      </c>
+      <c r="J108" s="11">
         <v>5911474</v>
       </c>
-      <c r="F108" s="11">
+      <c r="K108" s="11">
         <v>7289652</v>
       </c>
-      <c r="G108" s="11">
+      <c r="L108" s="11">
         <v>5470832</v>
       </c>
-      <c r="H108" s="11">
+      <c r="M108" s="11">
         <v>4106708</v>
       </c>
-      <c r="I108" s="11">
+      <c r="N108" s="11">
         <v>6854320</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
+        <v>4349578</v>
+      </c>
+      <c r="F109" s="9">
+        <v>9920763</v>
+      </c>
+      <c r="G109" s="9">
+        <v>7178226</v>
+      </c>
+      <c r="H109" s="9">
+        <v>4714268</v>
+      </c>
+      <c r="I109" s="9">
+        <v>4048495</v>
+      </c>
+      <c r="J109" s="9">
         <v>18897696</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>30658731</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>10350294</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>10088128</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>13218377</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
+        <v>65702</v>
+      </c>
+      <c r="F110" s="11">
+        <v>-65702</v>
+      </c>
+      <c r="G110" s="11">
+        <v>0</v>
+      </c>
+      <c r="H110" s="11">
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <v>0</v>
+      </c>
+      <c r="J110" s="11">
         <v>400388</v>
       </c>
-      <c r="F110" s="11">
-        <v>0</v>
-      </c>
-      <c r="G110" s="11">
+      <c r="K110" s="11">
+        <v>0</v>
+      </c>
+      <c r="L110" s="11">
         <v>2070357</v>
       </c>
-      <c r="H110" s="11">
-        <v>0</v>
-      </c>
-      <c r="I110" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M110" s="11">
+        <v>0</v>
+      </c>
+      <c r="N110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
+        <v>798101</v>
+      </c>
+      <c r="F111" s="9">
+        <v>903665</v>
+      </c>
+      <c r="G111" s="9">
+        <v>1855133</v>
+      </c>
+      <c r="H111" s="9">
+        <v>1588119</v>
+      </c>
+      <c r="I111" s="9">
+        <v>1160737</v>
+      </c>
+      <c r="J111" s="9">
         <v>1530616</v>
       </c>
-      <c r="F111" s="9">
+      <c r="K111" s="9">
         <v>1933471</v>
       </c>
-      <c r="G111" s="9">
+      <c r="L111" s="9">
         <v>1897807</v>
       </c>
-      <c r="H111" s="9">
+      <c r="M111" s="9">
         <v>1591007</v>
       </c>
-      <c r="I111" s="9">
+      <c r="N111" s="9">
         <v>1598559</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
+        <v>1962763</v>
+      </c>
+      <c r="F112" s="11">
+        <v>2097866</v>
+      </c>
+      <c r="G112" s="11">
+        <v>2057368</v>
+      </c>
+      <c r="H112" s="11">
+        <v>2303080</v>
+      </c>
+      <c r="I112" s="11">
+        <v>928076</v>
+      </c>
+      <c r="J112" s="11">
         <v>2471599</v>
       </c>
-      <c r="F112" s="11">
+      <c r="K112" s="11">
         <v>6782137</v>
       </c>
-      <c r="G112" s="11">
+      <c r="L112" s="11">
         <v>5335496</v>
       </c>
-      <c r="H112" s="11">
+      <c r="M112" s="11">
         <v>4853297</v>
       </c>
-      <c r="I112" s="11">
+      <c r="N112" s="11">
         <v>6423306</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
+        <v>17306413</v>
+      </c>
+      <c r="F113" s="9">
+        <v>22978085</v>
+      </c>
+      <c r="G113" s="9">
+        <v>26682633</v>
+      </c>
+      <c r="H113" s="9">
+        <v>35691912</v>
+      </c>
+      <c r="I113" s="9">
+        <v>33074307</v>
+      </c>
+      <c r="J113" s="9">
         <v>41577820</v>
       </c>
-      <c r="F113" s="9">
+      <c r="K113" s="9">
         <v>36520952</v>
       </c>
-      <c r="G113" s="9">
+      <c r="L113" s="9">
         <v>32447380</v>
       </c>
-      <c r="H113" s="9">
+      <c r="M113" s="9">
         <v>50165743</v>
       </c>
-      <c r="I113" s="9">
+      <c r="N113" s="9">
         <v>47116902</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
+        <v>27545130</v>
+      </c>
+      <c r="F114" s="13">
+        <v>41363799</v>
+      </c>
+      <c r="G114" s="13">
+        <v>44070567</v>
+      </c>
+      <c r="H114" s="13">
+        <v>50213527</v>
+      </c>
+      <c r="I114" s="13">
+        <v>43131205</v>
+      </c>
+      <c r="J114" s="13">
         <v>71175645</v>
       </c>
-      <c r="F114" s="13">
+      <c r="K114" s="13">
         <v>88410909</v>
       </c>
-      <c r="G114" s="13">
+      <c r="L114" s="13">
         <v>57572166</v>
       </c>
-      <c r="H114" s="13">
+      <c r="M114" s="13">
         <v>70804883</v>
       </c>
-      <c r="I114" s="13">
+      <c r="N114" s="13">
         <v>75211464</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2913,8 +4278,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2923,8 +4293,13 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2933,10 +4308,15 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -2955,8 +4335,23 @@
       <c r="I118" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2965,198 +4360,323 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
+        <v>9641</v>
+      </c>
+      <c r="F120" s="9">
+        <v>0</v>
+      </c>
+      <c r="G120" s="9">
+        <v>1506790</v>
+      </c>
+      <c r="H120" s="9">
+        <v>1643449</v>
+      </c>
+      <c r="I120" s="9">
+        <v>1654856</v>
+      </c>
+      <c r="J120" s="9">
         <v>1275795</v>
       </c>
-      <c r="F120" s="9">
-        <v>0</v>
-      </c>
-      <c r="G120" s="9">
+      <c r="K120" s="9">
+        <v>0</v>
+      </c>
+      <c r="L120" s="9">
         <v>2206788</v>
       </c>
-      <c r="H120" s="9">
+      <c r="M120" s="9">
         <v>2577263</v>
       </c>
-      <c r="I120" s="9">
+      <c r="N120" s="9">
         <v>2763351</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
+        <v>17919</v>
+      </c>
+      <c r="F121" s="11">
+        <v>323052</v>
+      </c>
+      <c r="G121" s="11">
+        <v>171643</v>
+      </c>
+      <c r="H121" s="11">
+        <v>84442</v>
+      </c>
+      <c r="I121" s="11">
+        <v>0</v>
+      </c>
+      <c r="J121" s="11">
         <v>1560778</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>1861760</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>733397</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>859282</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>1665254</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
+        <v>962839</v>
+      </c>
+      <c r="F122" s="9">
+        <v>483080</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1001881</v>
+      </c>
+      <c r="H122" s="9">
+        <v>3653601</v>
+      </c>
+      <c r="I122" s="9">
+        <v>2824001</v>
+      </c>
+      <c r="J122" s="9">
         <v>7382405</v>
       </c>
-      <c r="F122" s="9">
+      <c r="K122" s="9">
         <v>1531038</v>
       </c>
-      <c r="G122" s="9">
+      <c r="L122" s="9">
         <v>2525132</v>
       </c>
-      <c r="H122" s="9">
+      <c r="M122" s="9">
         <v>4491731</v>
       </c>
-      <c r="I122" s="9">
+      <c r="N122" s="9">
         <v>2812484</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>0</v>
+        <v>269166</v>
       </c>
       <c r="F123" s="11">
-        <v>0</v>
+        <v>334868</v>
       </c>
       <c r="G123" s="11">
-        <v>0</v>
+        <v>334868</v>
       </c>
       <c r="H123" s="11">
-        <v>0</v>
+        <v>400388</v>
       </c>
       <c r="I123" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>805078</v>
+      </c>
+      <c r="J123" s="11">
+        <v>0</v>
+      </c>
+      <c r="K123" s="11">
+        <v>0</v>
+      </c>
+      <c r="L123" s="11">
+        <v>0</v>
+      </c>
+      <c r="M123" s="11">
+        <v>0</v>
+      </c>
+      <c r="N123" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
+        <v>544436</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1096039</v>
+      </c>
+      <c r="G124" s="9">
+        <v>872934</v>
+      </c>
+      <c r="H124" s="9">
+        <v>1082024</v>
+      </c>
+      <c r="I124" s="9">
+        <v>1209876</v>
+      </c>
+      <c r="J124" s="9">
         <v>1697615</v>
       </c>
-      <c r="F124" s="9">
+      <c r="K124" s="9">
         <v>1791850</v>
       </c>
-      <c r="G124" s="9">
+      <c r="L124" s="9">
         <v>1498608</v>
       </c>
-      <c r="H124" s="9">
+      <c r="M124" s="9">
         <v>2139794</v>
       </c>
-      <c r="I124" s="9">
+      <c r="N124" s="9">
         <v>2912706</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
+        <v>4747725</v>
+      </c>
+      <c r="F125" s="11">
+        <v>4145953</v>
+      </c>
+      <c r="G125" s="11">
+        <v>4594485</v>
+      </c>
+      <c r="H125" s="11">
+        <v>4922553</v>
+      </c>
+      <c r="I125" s="11">
+        <v>4849454</v>
+      </c>
+      <c r="J125" s="11">
         <v>5032824</v>
       </c>
-      <c r="F125" s="11">
+      <c r="K125" s="11">
         <v>5644691</v>
       </c>
-      <c r="G125" s="11">
+      <c r="L125" s="11">
         <v>7603919</v>
       </c>
-      <c r="H125" s="11">
+      <c r="M125" s="11">
         <v>9526571</v>
       </c>
-      <c r="I125" s="11">
+      <c r="N125" s="11">
         <v>9644326</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9">
+        <v>8381096</v>
+      </c>
+      <c r="F126" s="9">
+        <v>11881347</v>
+      </c>
+      <c r="G126" s="9">
+        <v>29129267</v>
+      </c>
+      <c r="H126" s="9">
+        <v>32869972</v>
+      </c>
+      <c r="I126" s="9">
+        <v>62025823</v>
+      </c>
+      <c r="J126" s="9">
         <v>53027840</v>
       </c>
-      <c r="F126" s="9">
+      <c r="K126" s="9">
         <v>57084858</v>
       </c>
-      <c r="G126" s="9">
+      <c r="L126" s="9">
         <v>65363697</v>
       </c>
-      <c r="H126" s="9">
+      <c r="M126" s="9">
         <v>55335026</v>
       </c>
-      <c r="I126" s="9">
+      <c r="N126" s="9">
         <v>46058357</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
+        <v>14932822</v>
+      </c>
+      <c r="F127" s="13">
+        <v>18264339</v>
+      </c>
+      <c r="G127" s="13">
+        <v>37611868</v>
+      </c>
+      <c r="H127" s="13">
+        <v>44656429</v>
+      </c>
+      <c r="I127" s="13">
+        <v>73369088</v>
+      </c>
+      <c r="J127" s="13">
         <v>69977257</v>
       </c>
-      <c r="F127" s="13">
+      <c r="K127" s="13">
         <v>67914197</v>
       </c>
-      <c r="G127" s="13">
+      <c r="L127" s="13">
         <v>79931541</v>
       </c>
-      <c r="H127" s="13">
+      <c r="M127" s="13">
         <v>74929667</v>
       </c>
-      <c r="I127" s="13">
+      <c r="N127" s="13">
         <v>65856478</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3165,8 +4685,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3175,8 +4700,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3185,10 +4715,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3207,8 +4742,23 @@
       <c r="I131" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3217,176 +4767,286 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9">
+      <c r="E133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H133" s="9">
+        <v>28925000</v>
+      </c>
+      <c r="I133" s="9">
+        <v>30373494</v>
+      </c>
+      <c r="J133" s="9">
         <v>30642077</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>30719101</v>
       </c>
-      <c r="G133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
-        <v>26</v>
+      <c r="E134" s="11">
+        <v>1000000</v>
       </c>
       <c r="F134" s="11">
+        <v>66613383</v>
+      </c>
+      <c r="G134" s="11">
+        <v>78927926</v>
+      </c>
+      <c r="H134" s="11">
+        <v>85821500</v>
+      </c>
+      <c r="I134" s="11">
+        <v>92895490</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K134" s="11">
         <v>93650426</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>100968653</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>53878710</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>56643507</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>27520092</v>
+      </c>
+      <c r="F135" s="9">
+        <v>39888930</v>
+      </c>
+      <c r="G135" s="9">
+        <v>46521572</v>
+      </c>
+      <c r="H135" s="9">
+        <v>64728853</v>
+      </c>
+      <c r="I135" s="9">
+        <v>65069743</v>
+      </c>
+      <c r="J135" s="9">
         <v>73079238</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>82652123</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>85373156</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>85369079</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>71444743</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D136" s="11"/>
-      <c r="E136" s="11">
+      <c r="E136" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J136" s="11">
         <v>805078000000</v>
       </c>
-      <c r="F136" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G136" s="11">
+      <c r="K136" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L136" s="11">
         <v>2070357000000</v>
       </c>
-      <c r="H136" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M136" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N136" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>74015985</v>
+      </c>
+      <c r="F137" s="9">
+        <v>131063072</v>
+      </c>
+      <c r="G137" s="9">
+        <v>96695104</v>
+      </c>
+      <c r="H137" s="9">
+        <v>144690093</v>
+      </c>
+      <c r="I137" s="9">
+        <v>142728400</v>
+      </c>
+      <c r="J137" s="9">
         <v>128573433</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>107737196</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>104265132</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>135314492</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>245812062</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>179496524</v>
+      </c>
+      <c r="F138" s="11">
+        <v>196707201</v>
+      </c>
+      <c r="G138" s="11">
+        <v>227524586</v>
+      </c>
+      <c r="H138" s="11">
+        <v>250555622</v>
+      </c>
+      <c r="I138" s="11">
+        <v>297633049</v>
+      </c>
+      <c r="J138" s="11">
         <v>323404735</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>455789169</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>499289315</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>534621318</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>574408863</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
+        <v>9676527</v>
+      </c>
+      <c r="F139" s="9">
+        <v>11783698</v>
+      </c>
+      <c r="G139" s="9">
+        <v>15709750</v>
+      </c>
+      <c r="H139" s="9">
+        <v>21467908</v>
+      </c>
+      <c r="I139" s="9">
+        <v>24422898</v>
+      </c>
+      <c r="J139" s="9">
         <v>29675383</v>
       </c>
-      <c r="F139" s="9">
+      <c r="K139" s="9">
         <v>31535921</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>31015477</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>34249697</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>35725670</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3395,8 +5055,13 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3405,8 +5070,13 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3415,10 +5085,15 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3437,8 +5112,23 @@
       <c r="I143" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3447,176 +5137,286 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D145" s="9"/>
-      <c r="E145" s="9" t="s">
-        <v>26</v>
+      <c r="E145" s="9">
+        <v>15935537</v>
       </c>
       <c r="F145" s="9">
+        <v>26585921</v>
+      </c>
+      <c r="G145" s="9">
+        <v>29564457</v>
+      </c>
+      <c r="H145" s="9">
+        <v>31837295</v>
+      </c>
+      <c r="I145" s="9">
+        <v>35882970</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K145" s="9">
         <v>78041943</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>39631270</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>14819000000</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>47751604</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
+        <v>61272819</v>
+      </c>
+      <c r="F146" s="11">
+        <v>79500706</v>
+      </c>
+      <c r="G146" s="11">
+        <v>92086170</v>
+      </c>
+      <c r="H146" s="11">
+        <v>92855686</v>
+      </c>
+      <c r="I146" s="11">
+        <v>114669029</v>
+      </c>
+      <c r="J146" s="11">
         <v>100841469</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>100421152</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>74475929</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>78732733</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>140398673</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>34381827</v>
+      </c>
+      <c r="F147" s="9">
+        <v>51723310</v>
+      </c>
+      <c r="G147" s="9">
+        <v>64665684</v>
+      </c>
+      <c r="H147" s="9">
+        <v>64830056</v>
+      </c>
+      <c r="I147" s="9">
+        <v>80996829</v>
+      </c>
+      <c r="J147" s="9">
         <v>83640947</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>99027440</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>84367468</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>79855118</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>69128460</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I148" s="11">
+        <v>404690000000</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K148" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L148" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M148" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N148" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
+        <v>20758507</v>
+      </c>
+      <c r="F149" s="9">
+        <v>35192204</v>
+      </c>
+      <c r="G149" s="9">
+        <v>46311805</v>
+      </c>
+      <c r="H149" s="9">
+        <v>56596848</v>
+      </c>
+      <c r="I149" s="9">
+        <v>64639528</v>
+      </c>
+      <c r="J149" s="9">
         <v>62420133</v>
       </c>
-      <c r="F149" s="9">
+      <c r="K149" s="9">
         <v>57964267</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>68541456</v>
       </c>
-      <c r="H149" s="9">
+      <c r="M149" s="9">
         <v>107213881</v>
       </c>
-      <c r="I149" s="9">
+      <c r="N149" s="9">
         <v>82866413</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
+        <v>172750660</v>
+      </c>
+      <c r="F150" s="11">
+        <v>238933188</v>
+      </c>
+      <c r="G150" s="11">
+        <v>212959973</v>
+      </c>
+      <c r="H150" s="11">
+        <v>292206425</v>
+      </c>
+      <c r="I150" s="11">
+        <v>280965166</v>
+      </c>
+      <c r="J150" s="11">
         <v>473256506</v>
       </c>
-      <c r="F150" s="11">
+      <c r="K150" s="11">
         <v>524025797</v>
       </c>
-      <c r="G150" s="11">
+      <c r="L150" s="11">
         <v>510315517</v>
       </c>
-      <c r="H150" s="11">
+      <c r="M150" s="11">
         <v>536793868</v>
       </c>
-      <c r="I150" s="11">
+      <c r="N150" s="11">
         <v>418226407</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9">
+        <v>13535118</v>
+      </c>
+      <c r="F151" s="9">
+        <v>18569834</v>
+      </c>
+      <c r="G151" s="9">
+        <v>26701121</v>
+      </c>
+      <c r="H151" s="9">
+        <v>26633817</v>
+      </c>
+      <c r="I151" s="9">
+        <v>33296339</v>
+      </c>
+      <c r="J151" s="9">
         <v>33512283</v>
       </c>
-      <c r="F151" s="9">
+      <c r="K151" s="9">
         <v>33552400</v>
       </c>
-      <c r="G151" s="9">
+      <c r="L151" s="9">
         <v>35460867</v>
       </c>
-      <c r="H151" s="9">
+      <c r="M151" s="9">
         <v>36965846</v>
       </c>
-      <c r="I151" s="9">
+      <c r="N151" s="9">
         <v>31177994</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3625,8 +5425,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3635,8 +5440,13 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3645,10 +5455,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3667,8 +5482,23 @@
       <c r="I155" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3677,176 +5507,286 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9">
+      <c r="E157" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="9">
+        <v>26457914</v>
+      </c>
+      <c r="G157" s="9">
+        <v>30084880</v>
+      </c>
+      <c r="H157" s="9">
+        <v>30137690</v>
+      </c>
+      <c r="I157" s="9">
+        <v>30248317</v>
+      </c>
+      <c r="J157" s="9">
         <v>30946052</v>
       </c>
-      <c r="F157" s="9">
+      <c r="K157" s="9">
         <v>56713360</v>
       </c>
-      <c r="G157" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I157" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L157" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M157" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N157" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
+        <v>61242886</v>
+      </c>
+      <c r="F158" s="11">
+        <v>79479455</v>
+      </c>
+      <c r="G158" s="11">
+        <v>91225668</v>
+      </c>
+      <c r="H158" s="11">
+        <v>92573702</v>
+      </c>
+      <c r="I158" s="11">
+        <v>114080835</v>
+      </c>
+      <c r="J158" s="11">
         <v>102928177</v>
       </c>
-      <c r="F158" s="11">
+      <c r="K158" s="11">
         <v>98757038</v>
       </c>
-      <c r="G158" s="11">
+      <c r="L158" s="11">
         <v>86654291</v>
       </c>
-      <c r="H158" s="11">
+      <c r="M158" s="11">
         <v>78671060</v>
       </c>
-      <c r="I158" s="11">
+      <c r="N158" s="11">
         <v>153440039</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
+        <v>33011369</v>
+      </c>
+      <c r="F159" s="9">
+        <v>50543160</v>
+      </c>
+      <c r="G159" s="9">
+        <v>63814962</v>
+      </c>
+      <c r="H159" s="9">
+        <v>64625048</v>
+      </c>
+      <c r="I159" s="9">
+        <v>70719776</v>
+      </c>
+      <c r="J159" s="9">
         <v>82249005</v>
       </c>
-      <c r="F159" s="9">
+      <c r="K159" s="9">
         <v>95104464</v>
       </c>
-      <c r="G159" s="9">
+      <c r="L159" s="9">
         <v>84322175</v>
       </c>
-      <c r="H159" s="9">
+      <c r="M159" s="9">
         <v>85423113</v>
       </c>
-      <c r="I159" s="9">
+      <c r="N159" s="9">
         <v>69832092</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D160" s="11"/>
-      <c r="E160" s="11">
+      <c r="E160" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J160" s="11">
         <v>400388000000</v>
       </c>
-      <c r="F160" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G160" s="11">
+      <c r="K160" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L160" s="11">
         <v>2070357000000</v>
       </c>
-      <c r="H160" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I160" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M160" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N160" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
+        <v>19193887</v>
+      </c>
+      <c r="F161" s="9">
+        <v>26445378</v>
+      </c>
+      <c r="G161" s="9">
+        <v>44958752</v>
+      </c>
+      <c r="H161" s="9">
+        <v>50787304</v>
+      </c>
+      <c r="I161" s="9">
+        <v>64107865</v>
+      </c>
+      <c r="J161" s="9">
         <v>58897029</v>
       </c>
-      <c r="F161" s="9">
+      <c r="K161" s="9">
         <v>58458941</v>
       </c>
-      <c r="G161" s="9">
+      <c r="L161" s="9">
         <v>63725429</v>
       </c>
-      <c r="H161" s="9">
+      <c r="M161" s="9">
         <v>68607460</v>
       </c>
-      <c r="I161" s="9">
+      <c r="N161" s="9">
         <v>65974371</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
+        <v>146104139</v>
+      </c>
+      <c r="F162" s="11">
+        <v>170544346</v>
+      </c>
+      <c r="G162" s="11">
+        <v>176719464</v>
+      </c>
+      <c r="H162" s="11">
+        <v>213169197</v>
+      </c>
+      <c r="I162" s="11">
+        <v>202327447</v>
+      </c>
+      <c r="J162" s="11">
         <v>258454355</v>
       </c>
-      <c r="F162" s="11">
+      <c r="K162" s="11">
         <v>489649628</v>
       </c>
-      <c r="G162" s="11">
+      <c r="L162" s="11">
         <v>468972137</v>
       </c>
-      <c r="H162" s="11">
+      <c r="M162" s="11">
         <v>472984797</v>
       </c>
-      <c r="I162" s="11">
+      <c r="N162" s="11">
         <v>464682486</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
+        <v>12604835</v>
+      </c>
+      <c r="F163" s="9">
+        <v>16640898</v>
+      </c>
+      <c r="G163" s="9">
+        <v>25466554</v>
+      </c>
+      <c r="H163" s="9">
+        <v>23938831</v>
+      </c>
+      <c r="I163" s="9">
+        <v>29407174</v>
+      </c>
+      <c r="J163" s="9">
         <v>30111094</v>
       </c>
-      <c r="F163" s="9">
+      <c r="K163" s="9">
         <v>32700108</v>
       </c>
-      <c r="G163" s="9">
+      <c r="L163" s="9">
         <v>30261529</v>
       </c>
-      <c r="H163" s="9">
+      <c r="M163" s="9">
         <v>34708442</v>
       </c>
-      <c r="I163" s="9">
+      <c r="N163" s="9">
         <v>32539185</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3855,8 +5795,13 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3865,8 +5810,13 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3875,10 +5825,15 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+    </row>
+    <row r="167" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -3897,8 +5852,23 @@
       <c r="I167" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K167" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L167" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M167" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N167" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3907,176 +5877,286 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D169" s="9"/>
-      <c r="E169" s="9">
+      <c r="E169" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I169" s="9">
+        <v>30642077</v>
+      </c>
+      <c r="J169" s="9">
         <v>30719101</v>
       </c>
-      <c r="F169" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" s="9">
+      <c r="K169" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L169" s="9">
         <v>39631270</v>
       </c>
-      <c r="H169" s="9">
+      <c r="M169" s="9">
         <v>46263786</v>
       </c>
-      <c r="I169" s="9">
+      <c r="N169" s="9">
         <v>46361060</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D170" s="11"/>
-      <c r="E170" s="11">
+      <c r="E170" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I170" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J170" s="11">
         <v>93650426</v>
       </c>
-      <c r="F170" s="11">
+      <c r="K170" s="11">
         <v>100963124</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>53878710</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>56643507</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>66450678</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D171" s="9"/>
-      <c r="E171" s="9">
+      <c r="E171" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I171" s="9">
+        <v>73079238</v>
+      </c>
+      <c r="J171" s="9">
         <v>82652123</v>
       </c>
-      <c r="F171" s="9">
+      <c r="K171" s="9">
         <v>87688316</v>
       </c>
-      <c r="G171" s="9">
+      <c r="L171" s="9">
         <v>85369079</v>
       </c>
-      <c r="H171" s="9">
+      <c r="M171" s="9">
         <v>71444743</v>
       </c>
-      <c r="I171" s="9">
+      <c r="N171" s="9">
         <v>69435477</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I172" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I172" s="11">
+        <v>805078000000</v>
+      </c>
+      <c r="J172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N172" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D173" s="9"/>
-      <c r="E173" s="9">
+      <c r="E173" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I173" s="9">
+        <v>128573433</v>
+      </c>
+      <c r="J173" s="9">
         <v>107737196</v>
       </c>
-      <c r="F173" s="9">
+      <c r="K173" s="9">
         <v>101435041</v>
       </c>
-      <c r="G173" s="9">
+      <c r="L173" s="9">
         <v>135314492</v>
       </c>
-      <c r="H173" s="9">
+      <c r="M173" s="9">
         <v>245812062</v>
       </c>
-      <c r="I173" s="9">
+      <c r="N173" s="9">
         <v>222462843</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C174" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C174" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D174" s="11"/>
-      <c r="E174" s="11">
+      <c r="E174" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I174" s="11">
+        <v>323404735</v>
+      </c>
+      <c r="J174" s="11">
         <v>455789169</v>
       </c>
-      <c r="F174" s="11">
+      <c r="K174" s="11">
         <v>499485975</v>
       </c>
-      <c r="G174" s="11">
+      <c r="L174" s="11">
         <v>534621318</v>
       </c>
-      <c r="H174" s="11">
+      <c r="M174" s="11">
         <v>574408863</v>
       </c>
-      <c r="I174" s="11">
+      <c r="N174" s="11">
         <v>524091186</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D175" s="9"/>
-      <c r="E175" s="9">
+      <c r="E175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I175" s="9">
+        <v>29675383</v>
+      </c>
+      <c r="J175" s="9">
         <v>31535921</v>
       </c>
-      <c r="F175" s="9">
+      <c r="K175" s="9">
         <v>32177669</v>
       </c>
-      <c r="G175" s="9">
+      <c r="L175" s="9">
         <v>34249697</v>
       </c>
-      <c r="H175" s="9">
+      <c r="M175" s="9">
         <v>35725670</v>
       </c>
-      <c r="I175" s="9">
+      <c r="N175" s="9">
         <v>35036930</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4085,8 +6165,13 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4095,8 +6180,13 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4105,10 +6195,15 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -4127,8 +6222,23 @@
       <c r="I179" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M179" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N179" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4137,32 +6247,52 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
+        <v>381723</v>
+      </c>
+      <c r="F181" s="9">
+        <v>421460</v>
+      </c>
+      <c r="G181" s="9">
+        <v>613019</v>
+      </c>
+      <c r="H181" s="9">
+        <v>652272</v>
+      </c>
+      <c r="I181" s="9">
+        <v>652940</v>
+      </c>
+      <c r="J181" s="9">
         <v>654864</v>
       </c>
-      <c r="F181" s="9">
+      <c r="K181" s="9">
         <v>1942020</v>
       </c>
-      <c r="G181" s="9">
+      <c r="L181" s="9">
         <v>1512457</v>
       </c>
-      <c r="H181" s="9">
+      <c r="M181" s="9">
         <v>1686472</v>
       </c>
-      <c r="I181" s="9">
+      <c r="N181" s="9">
         <v>1810568</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -4181,10 +6311,25 @@
       <c r="I182" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="11">
+        <v>0</v>
+      </c>
+      <c r="K182" s="11">
+        <v>0</v>
+      </c>
+      <c r="L182" s="11">
+        <v>0</v>
+      </c>
+      <c r="M182" s="11">
+        <v>0</v>
+      </c>
+      <c r="N182" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -4203,10 +6348,25 @@
       <c r="I183" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="9">
+        <v>0</v>
+      </c>
+      <c r="K183" s="9">
+        <v>0</v>
+      </c>
+      <c r="L183" s="9">
+        <v>0</v>
+      </c>
+      <c r="M183" s="9">
+        <v>0</v>
+      </c>
+      <c r="N183" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -4225,98 +6385,173 @@
       <c r="I184" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="11">
+        <v>0</v>
+      </c>
+      <c r="K184" s="11">
+        <v>0</v>
+      </c>
+      <c r="L184" s="11">
+        <v>0</v>
+      </c>
+      <c r="M184" s="11">
+        <v>0</v>
+      </c>
+      <c r="N184" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
+        <v>6045482</v>
+      </c>
+      <c r="F185" s="9">
+        <v>6885714</v>
+      </c>
+      <c r="G185" s="9">
+        <v>3646729</v>
+      </c>
+      <c r="H185" s="9">
+        <v>5383479</v>
+      </c>
+      <c r="I185" s="9">
+        <v>3403787</v>
+      </c>
+      <c r="J185" s="9">
         <v>2132533</v>
       </c>
-      <c r="F185" s="9">
+      <c r="K185" s="9">
         <v>8752150</v>
       </c>
-      <c r="G185" s="9">
+      <c r="L185" s="9">
         <v>5734607</v>
       </c>
-      <c r="H185" s="9">
+      <c r="M185" s="9">
         <v>5666674</v>
       </c>
-      <c r="I185" s="9">
+      <c r="N185" s="9">
         <v>6897439</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
+        <v>2191449</v>
+      </c>
+      <c r="F186" s="11">
+        <v>1938756</v>
+      </c>
+      <c r="G186" s="11">
+        <v>1502975</v>
+      </c>
+      <c r="H186" s="11">
+        <v>6868907</v>
+      </c>
+      <c r="I186" s="11">
+        <v>6387902</v>
+      </c>
+      <c r="J186" s="11">
         <v>10938342</v>
       </c>
-      <c r="F186" s="11">
+      <c r="K186" s="11">
         <v>15219765</v>
       </c>
-      <c r="G186" s="11">
+      <c r="L186" s="11">
         <v>16331247</v>
       </c>
-      <c r="H186" s="11">
+      <c r="M186" s="11">
         <v>12592292</v>
       </c>
-      <c r="I186" s="11">
+      <c r="N186" s="11">
         <v>13528803</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9">
+        <v>376600</v>
+      </c>
+      <c r="F187" s="9">
+        <v>367479</v>
+      </c>
+      <c r="G187" s="9">
+        <v>426682</v>
+      </c>
+      <c r="H187" s="9">
+        <v>463630</v>
+      </c>
+      <c r="I187" s="9">
+        <v>489245</v>
+      </c>
+      <c r="J187" s="9">
         <v>521356</v>
       </c>
-      <c r="F187" s="9">
+      <c r="K187" s="9">
         <v>657425</v>
       </c>
-      <c r="G187" s="9">
+      <c r="L187" s="9">
         <v>596675</v>
       </c>
-      <c r="H187" s="9">
+      <c r="M187" s="9">
         <v>659285</v>
       </c>
-      <c r="I187" s="9">
+      <c r="N187" s="9">
         <v>645500</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
+        <v>2238466</v>
+      </c>
+      <c r="F188" s="11">
+        <v>2313095</v>
+      </c>
+      <c r="G188" s="11">
+        <v>3848721</v>
+      </c>
+      <c r="H188" s="11">
+        <v>4811750</v>
+      </c>
+      <c r="I188" s="11">
+        <v>3756238</v>
+      </c>
+      <c r="J188" s="11">
         <v>4295600</v>
       </c>
-      <c r="F188" s="11">
+      <c r="K188" s="11">
         <v>4841370</v>
       </c>
-      <c r="G188" s="11">
+      <c r="L188" s="11">
         <v>7993763</v>
       </c>
-      <c r="H188" s="11">
+      <c r="M188" s="11">
         <v>6671769</v>
       </c>
-      <c r="I188" s="11">
+      <c r="N188" s="11">
         <v>7509174</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -4335,52 +6570,97 @@
       <c r="I189" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="9">
+        <v>0</v>
+      </c>
+      <c r="K189" s="9">
+        <v>0</v>
+      </c>
+      <c r="L189" s="9">
+        <v>0</v>
+      </c>
+      <c r="M189" s="9">
+        <v>0</v>
+      </c>
+      <c r="N189" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
+        <v>1612903</v>
+      </c>
+      <c r="F190" s="11">
+        <v>2148705</v>
+      </c>
+      <c r="G190" s="11">
+        <v>3529158</v>
+      </c>
+      <c r="H190" s="11">
+        <v>2679595</v>
+      </c>
+      <c r="I190" s="11">
+        <v>3757845</v>
+      </c>
+      <c r="J190" s="11">
         <v>3694592</v>
       </c>
-      <c r="F190" s="11">
+      <c r="K190" s="11">
         <v>5457978</v>
       </c>
-      <c r="G190" s="11">
+      <c r="L190" s="11">
         <v>5409194</v>
       </c>
-      <c r="H190" s="11">
+      <c r="M190" s="11">
         <v>6426333</v>
       </c>
-      <c r="I190" s="11">
+      <c r="N190" s="11">
         <v>5471946</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15">
+        <v>12846623</v>
+      </c>
+      <c r="F191" s="15">
+        <v>14075209</v>
+      </c>
+      <c r="G191" s="15">
+        <v>13567284</v>
+      </c>
+      <c r="H191" s="15">
+        <v>20859633</v>
+      </c>
+      <c r="I191" s="15">
+        <v>18447957</v>
+      </c>
+      <c r="J191" s="15">
         <v>22237287</v>
       </c>
-      <c r="F191" s="15">
+      <c r="K191" s="15">
         <v>36870708</v>
       </c>
-      <c r="G191" s="15">
+      <c r="L191" s="15">
         <v>37577943</v>
       </c>
-      <c r="H191" s="15">
+      <c r="M191" s="15">
         <v>33702825</v>
       </c>
-      <c r="I191" s="15">
+      <c r="N191" s="15">
         <v>35863430</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4389,8 +6669,13 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4399,8 +6684,13 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4409,10 +6699,15 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -4421,8 +6716,13 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4431,13 +6731,18 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -4445,13 +6750,18 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
@@ -4459,123 +6769,128 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>

--- a/database/industries/folad/fakhouz/cost/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF852194-BA9A-43CC-99CF-922DEEFE6EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E4C14D-F3AB-45B4-803A-ADD78611E9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -97,25 +97,25 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>گندله خریداری</t>
+  </si>
+  <si>
+    <t>تن</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t>بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t>جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t>مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>گندله خریداری</t>
-  </si>
-  <si>
-    <t>تن</t>
   </si>
   <si>
     <t>آهن قراضه و چدن</t>
@@ -732,12 +732,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -752,7 +752,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -801,7 +801,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -850,7 +850,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -887,7 +887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -902,7 +902,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -939,7 +939,7 @@
         <v>75211464</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -976,7 +976,7 @@
         <v>2363398</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>35863430</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>113438292</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>147776</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>113586068</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>113586068</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>1730298</v>
+        <v>14404984</v>
       </c>
       <c r="H19" s="11">
         <v>16317168</v>
@@ -1260,7 +1260,7 @@
         <v>217394</v>
       </c>
       <c r="K19" s="11">
-        <v>15805540</v>
+        <v>47897935</v>
       </c>
       <c r="L19" s="11">
         <v>31945780</v>
@@ -1272,7 +1272,7 @@
         <v>46656137</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1284,8 +1284,8 @@
       <c r="F20" s="9">
         <v>-1730298</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>25</v>
+      <c r="G20" s="9">
+        <v>-16534562</v>
       </c>
       <c r="H20" s="9">
         <v>-29155620</v>
@@ -1309,9 +1309,9 @@
         <v>-46152273</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1346,9 +1346,9 @@
         <v>114089932</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1383,9 +1383,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1420,7 +1420,7 @@
         <v>114089932</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1435,7 +1435,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1450,7 +1450,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1465,9 +1465,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1517,16 +1517,16 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9">
         <v>605</v>
@@ -1556,12 +1556,12 @@
         <v>55708</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
@@ -1595,12 +1595,12 @@
         <v>15170</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
@@ -1634,12 +1634,12 @@
         <v>62870</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
@@ -1673,12 +1673,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
@@ -1712,12 +1712,12 @@
         <v>8705</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
@@ -1751,12 +1751,12 @@
         <v>16585</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
@@ -1790,7 +1790,7 @@
         <v>1548887</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>1707925</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1842,7 +1842,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1857,7 +1857,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1872,7 +1872,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>38</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1924,12 +1924,12 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
@@ -1963,12 +1963,12 @@
         <v>3897</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
@@ -2002,12 +2002,12 @@
         <v>54561</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
@@ -2041,12 +2041,12 @@
         <v>166923</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
@@ -2080,12 +2080,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
@@ -2119,12 +2119,12 @@
         <v>28618</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
@@ -2158,12 +2158,12 @@
         <v>15640</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
@@ -2197,7 +2197,7 @@
         <v>1213684</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>17</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1483323</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2249,7 +2249,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2264,7 +2264,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2279,7 +2279,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>39</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2331,12 +2331,12 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
@@ -2370,12 +2370,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
@@ -2409,12 +2409,12 @@
         <v>44671</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
@@ -2448,12 +2448,12 @@
         <v>189288</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
@@ -2487,12 +2487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
@@ -2526,12 +2526,12 @@
         <v>24230</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
@@ -2565,12 +2565,12 @@
         <v>13823</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
@@ -2604,7 +2604,7 @@
         <v>1448005</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>17</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>1720017</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2656,7 +2656,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2671,7 +2671,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2686,7 +2686,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>40</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2738,12 +2738,12 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
@@ -2777,12 +2777,12 @@
         <v>59605</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
@@ -2816,12 +2816,12 @@
         <v>25060</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
@@ -2855,12 +2855,12 @@
         <v>40505</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
@@ -2894,12 +2894,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
@@ -2933,12 +2933,12 @@
         <v>13093</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
@@ -2972,12 +2972,12 @@
         <v>18402</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
@@ -3011,7 +3011,7 @@
         <v>1314566</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>17</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1471231</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3063,7 +3063,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3078,7 +3078,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3093,7 +3093,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>41</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3145,16 +3145,16 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F81" s="9">
         <v>9641</v>
@@ -3184,7 +3184,7 @@
         <v>2577263</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>32</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>859282</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>33</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>4491731</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>34</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>35</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>2139794</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>36</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>9526571</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>37</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>55335026</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>17</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>74929667</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3470,7 +3470,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3485,7 +3485,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3500,7 +3500,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>43</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3552,9 +3552,9 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>42</v>
@@ -3591,7 +3591,7 @@
         <v>186088</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>32</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>7660292</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>33</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>11539130</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>34</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>35</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>2371471</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>36</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>6541061</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>37</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>37840233</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>17</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>66138275</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3877,7 +3877,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3892,7 +3892,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3907,7 +3907,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>44</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3959,9 +3959,9 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>42</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>6854320</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>33</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>13218377</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>34</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>35</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>1598559</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>36</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>6423306</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>37</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>47116902</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>17</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>75211464</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4284,7 +4284,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4299,7 +4299,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4314,7 +4314,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>45</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4366,9 +4366,9 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>42</v>
@@ -4405,7 +4405,7 @@
         <v>2763351</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>32</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>1665254</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>33</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>2812484</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>34</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>35</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>2912706</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>36</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>9644326</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>37</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>46058357</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>17</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>65856478</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4691,7 +4691,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4706,7 +4706,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4721,7 +4721,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>46</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4773,22 +4773,22 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H133" s="9">
         <v>28925000</v>
@@ -4803,16 +4803,16 @@
         <v>30719101</v>
       </c>
       <c r="L133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N133" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>32</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>92895490</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K134" s="11">
         <v>93650426</v>
@@ -4851,7 +4851,7 @@
         <v>56643507</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>33</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>71444743</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>34</v>
       </c>
@@ -4899,37 +4899,37 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J136" s="11">
         <v>805078000000</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L136" s="11">
         <v>2070357000000</v>
       </c>
       <c r="M136" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N136" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>35</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>245812062</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>36</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>574408863</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>37</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>35725670</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5061,7 +5061,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5076,7 +5076,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5091,7 +5091,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>48</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5143,9 +5143,9 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>47</v>
@@ -5167,7 +5167,7 @@
         <v>35882970</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K145" s="9">
         <v>78041943</v>
@@ -5182,7 +5182,7 @@
         <v>47751604</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>32</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>140398673</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>33</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>69128460</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>34</v>
       </c>
@@ -5269,37 +5269,37 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I148" s="11">
         <v>404690000000</v>
       </c>
       <c r="J148" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K148" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L148" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M148" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>35</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>82866413</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>36</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>418226407</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>37</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>31177994</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5431,7 +5431,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5446,7 +5446,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5461,7 +5461,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>49</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5513,16 +5513,16 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F157" s="9">
         <v>26457914</v>
@@ -5543,16 +5543,16 @@
         <v>56713360</v>
       </c>
       <c r="L157" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M157" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N157" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>32</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>153440039</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>33</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>69832092</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>34</v>
       </c>
@@ -5639,37 +5639,37 @@
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J160" s="11">
         <v>400388000000</v>
       </c>
       <c r="K160" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L160" s="11">
         <v>2070357000000</v>
       </c>
       <c r="M160" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N160" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>35</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>65974371</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>36</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>464682486</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>37</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>32539185</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5801,7 +5801,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5816,7 +5816,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5831,7 +5831,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
         <v>50</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5883,25 +5883,25 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I169" s="9">
         <v>30642077</v>
@@ -5910,7 +5910,7 @@
         <v>30719101</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L169" s="9">
         <v>39631270</v>
@@ -5922,28 +5922,28 @@
         <v>46361060</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J170" s="11">
         <v>93650426</v>
@@ -5961,25 +5961,25 @@
         <v>66450678</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I171" s="9">
         <v>73079238</v>
@@ -6000,64 +6000,64 @@
         <v>69435477</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I172" s="11">
         <v>805078000000</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M172" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N172" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I173" s="9">
         <v>128573433</v>
@@ -6078,25 +6078,25 @@
         <v>222462843</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I174" s="11">
         <v>323404735</v>
@@ -6117,25 +6117,25 @@
         <v>524091186</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I175" s="9">
         <v>29675383</v>
@@ -6156,7 +6156,7 @@
         <v>35036930</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6171,7 +6171,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6186,7 +6186,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6201,7 +6201,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>51</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -6253,7 +6253,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>52</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>1810568</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>53</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>54</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>55</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>56</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>6897439</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>57</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>13528803</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>58</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>645500</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>59</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>7509174</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>60</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>61</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>5471946</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="14" t="s">
         <v>17</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>35863430</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -6675,7 +6675,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -6690,7 +6690,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -6705,7 +6705,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
         <v>62</v>
       </c>
@@ -6722,7 +6722,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -6737,7 +6737,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>63</v>
       </c>
@@ -6756,7 +6756,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>65</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>67</v>
       </c>
@@ -6786,7 +6786,7 @@
       <c r="E199" s="9"/>
       <c r="F199" s="9"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>69</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>69</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>72</v>
       </c>
@@ -6819,7 +6819,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>74</v>
       </c>
@@ -6830,7 +6830,7 @@
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>76</v>
       </c>
@@ -6841,7 +6841,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>77</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>79</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>81</v>
       </c>
@@ -6874,7 +6874,7 @@
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>82</v>
       </c>
@@ -6885,7 +6885,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>83</v>
       </c>

--- a/database/industries/folad/fakhouz/cost/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fakhouz\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E4C14D-F3AB-45B4-803A-ADD78611E9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EE76BC-59CF-4E09-9D2E-1E3180A9F143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
